--- a/Sprint 1/Package 1/Documentation/P01_JE_07_Categorie.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_07_Categorie.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CodeCategorie</t>
   </si>
@@ -28,36 +28,9 @@
     <t>Ordinateur de Bureau</t>
   </si>
   <si>
-    <t>Téléphone intelligent Android</t>
-  </si>
-  <si>
-    <t>Téléphone intelligent Apple</t>
-  </si>
-  <si>
     <t>Ordinateur Portable</t>
   </si>
   <si>
-    <t>Tablette surface Windows</t>
-  </si>
-  <si>
-    <t>Tablette Android</t>
-  </si>
-  <si>
-    <t>Tablette Apple</t>
-  </si>
-  <si>
-    <t>Ipad, Ipad2</t>
-  </si>
-  <si>
-    <t>Tablette Windows</t>
-  </si>
-  <si>
-    <t>Iphone 5, Iphone 6</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy S6, Galaxy Note 5</t>
-  </si>
-  <si>
     <t>Console Portative</t>
   </si>
   <si>
@@ -70,25 +43,34 @@
     <t>PS4, Xbox One, Wii U</t>
   </si>
   <si>
-    <t>Mobile Android</t>
-  </si>
-  <si>
-    <t>Mobile Apple</t>
-  </si>
-  <si>
-    <t>Console Port</t>
-  </si>
-  <si>
-    <t>Console Salon</t>
-  </si>
-  <si>
-    <t>PC Bureau</t>
-  </si>
-  <si>
-    <t>PC Portable</t>
-  </si>
-  <si>
-    <t>Nexus 4, Nexus 5,Galaxy Tab 4, Galaxy Tab 3, Galaxy Tab S, Galaxy Tab A, etc.</t>
+    <t>PCPortable</t>
+  </si>
+  <si>
+    <t>PCBureau</t>
+  </si>
+  <si>
+    <t>ConsolePort</t>
+  </si>
+  <si>
+    <t>ConsoleSalon</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S6, Galaxy Note 5,Iphone 5, Iphone 6</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Téléphone intelligent</t>
+  </si>
+  <si>
+    <t>Tablette</t>
+  </si>
+  <si>
+    <t>Tablette intelligente</t>
+  </si>
+  <si>
+    <t>Tablette Windows,Ipad, Ipad2,Nexus 4, Nexus 5,Galaxy Tab 4, Galaxy Tab 3, Galaxy Tab S, Galaxy Tab A, etc.</t>
   </si>
 </sst>
 </file>
@@ -460,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,10 +468,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -497,29 +479,29 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -527,54 +509,21 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint 1/Package 1/Documentation/P01_JE_07_Categorie.xlsx
+++ b/Sprint 1/Package 1/Documentation/P01_JE_07_Categorie.xlsx
@@ -43,18 +43,6 @@
     <t>PS4, Xbox One, Wii U</t>
   </si>
   <si>
-    <t>PCPortable</t>
-  </si>
-  <si>
-    <t>PCBureau</t>
-  </si>
-  <si>
-    <t>ConsolePort</t>
-  </si>
-  <si>
-    <t>ConsoleSalon</t>
-  </si>
-  <si>
     <t>Samsung Galaxy S6, Galaxy Note 5,Iphone 5, Iphone 6</t>
   </si>
   <si>
@@ -64,13 +52,25 @@
     <t>Téléphone intelligent</t>
   </si>
   <si>
-    <t>Tablette</t>
-  </si>
-  <si>
     <t>Tablette intelligente</t>
   </si>
   <si>
     <t>Tablette Windows,Ipad, Ipad2,Nexus 4, Nexus 5,Galaxy Tab 4, Galaxy Tab 3, Galaxy Tab S, Galaxy Tab A, etc.</t>
+  </si>
+  <si>
+    <t>ConSal</t>
+  </si>
+  <si>
+    <t>ConPort</t>
+  </si>
+  <si>
+    <t>PCBur</t>
+  </si>
+  <si>
+    <t>PCPort</t>
+  </si>
+  <si>
+    <t>Tablet</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,18 +468,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -495,18 +495,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
